--- a/mx_Vue3_notes.xlsx
+++ b/mx_Vue3_notes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDev\HGW\Vue3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eDev\HGW\Vue3\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86168B-CAA2-46C5-9118-5FC9E726BBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33164F77-9868-4C46-8FF4-9B2427C635D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vue3" sheetId="1" r:id="rId1"/>
+    <sheet name="VueWithASP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Using Vue CLI</t>
   </si>
@@ -178,12 +179,18 @@
   <si>
     <t xml:space="preserve">  npm run dev</t>
   </si>
+  <si>
+    <t>Tutorial: Create an ASP.NET Core app with Vue in Visual Studio</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/visualstudio/javascript/tutorial-asp-net-core-with-vue?view=vs-2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +240,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,10 +266,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,8 +293,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,4 +835,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35666FC-3D3C-4C7A-B182-0D72B8E87AF2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E959A7CE-C4B1-45A5-9F0F-EE601AD5B9CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>